--- a/biology/Botanique/Romulea_ramiflora/Romulea_ramiflora.xlsx
+++ b/biology/Botanique/Romulea_ramiflora/Romulea_ramiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Romulea ramiflora est une espèce de plantes de la famille des Iridaceae[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Romulea ramiflora est une espèce de plantes de la famille des Iridaceae,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (22 avril 2024)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (22 avril 2024) :
 Romulea ramiflora subsp. gaditana (Kunze) Marais
 Romulea ramiflora subsp. ramiflora</t>
         </is>
@@ -543,11 +557,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Romulea ramiflora Ten.[3].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Romulée à fleurs ramifiées[4], Romulée ramifiée[4],[5],[6], Romulée rameuse[5].
-Romulea ramiflora a pour synonymes[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Romulea ramiflora Ten..
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Romulée à fleurs ramifiées, Romulée ramifiée Romulée rameuse.
+Romulea ramiflora a pour synonymes :
 Bulbocodium ramiflorum (Ten.) Kuntze
 Ixia ramiflora (Ten.) Ten.
 Romulea bulbocodium subsp. ramiflora (Ten.) Douin
